--- a/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H2">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I2">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J2">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N2">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O2">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P2">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q2">
-        <v>14.11448275800012</v>
+        <v>30.37883030248067</v>
       </c>
       <c r="R2">
-        <v>14.11448275800012</v>
+        <v>273.409472722326</v>
       </c>
       <c r="S2">
-        <v>0.0009867740766709961</v>
+        <v>0.001395502189057957</v>
       </c>
       <c r="T2">
-        <v>0.0009867740766709961</v>
+        <v>0.001613432085246262</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H3">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I3">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J3">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N3">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O3">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P3">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q3">
-        <v>88.07727140708037</v>
+        <v>136.902371662966</v>
       </c>
       <c r="R3">
-        <v>88.07727140708037</v>
+        <v>1232.121344966694</v>
       </c>
       <c r="S3">
-        <v>0.006157672913600771</v>
+        <v>0.00628883855766147</v>
       </c>
       <c r="T3">
-        <v>0.006157672913600771</v>
+        <v>0.007270940875208788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H4">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I4">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J4">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N4">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O4">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P4">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q4">
-        <v>10.56444338316074</v>
+        <v>16.923679236784</v>
       </c>
       <c r="R4">
-        <v>10.56444338316074</v>
+        <v>152.313113131056</v>
       </c>
       <c r="S4">
-        <v>0.0007385831307954021</v>
+        <v>0.0007774174050380819</v>
       </c>
       <c r="T4">
-        <v>0.0007385831307954021</v>
+        <v>0.0008988235165464419</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H5">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I5">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J5">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N5">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O5">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P5">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q5">
-        <v>14.88315832617112</v>
+        <v>30.716250507652</v>
       </c>
       <c r="R5">
-        <v>14.88315832617112</v>
+        <v>276.446254568868</v>
       </c>
       <c r="S5">
-        <v>0.001040513851414889</v>
+        <v>0.001411002148413223</v>
       </c>
       <c r="T5">
-        <v>0.001040513851414889</v>
+        <v>0.001631352610158288</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H6">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I6">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J6">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N6">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O6">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P6">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q6">
-        <v>72.31795288775527</v>
+        <v>116.005630056926</v>
       </c>
       <c r="R6">
-        <v>72.31795288775527</v>
+        <v>696.0337803415559</v>
       </c>
       <c r="S6">
-        <v>0.005055904804382821</v>
+        <v>0.00532891191252576</v>
       </c>
       <c r="T6">
-        <v>0.005055904804382821</v>
+        <v>0.00410740426231989</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H7">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J7">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N7">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O7">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P7">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q7">
-        <v>187.3283637673943</v>
+        <v>298.431007722111</v>
       </c>
       <c r="R7">
-        <v>187.3283637673943</v>
+        <v>2685.879069498999</v>
       </c>
       <c r="S7">
-        <v>0.01309653186448403</v>
+        <v>0.01370892560418861</v>
       </c>
       <c r="T7">
-        <v>0.01309653186448403</v>
+        <v>0.01584979271081121</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H8">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J8">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N8">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O8">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P8">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q8">
-        <v>1168.967465593678</v>
+        <v>1344.881034856359</v>
       </c>
       <c r="R8">
-        <v>1168.967465593678</v>
+        <v>12103.92931370723</v>
       </c>
       <c r="S8">
-        <v>0.08172504875290776</v>
+        <v>0.06177935126130665</v>
       </c>
       <c r="T8">
-        <v>0.08172504875290776</v>
+        <v>0.07142718106230903</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H9">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J9">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N9">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O9">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P9">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q9">
-        <v>140.2120025942193</v>
+        <v>166.252307897016</v>
       </c>
       <c r="R9">
-        <v>140.2120025942193</v>
+        <v>1496.270771073144</v>
       </c>
       <c r="S9">
-        <v>0.009802524950457759</v>
+        <v>0.0076370767832782</v>
       </c>
       <c r="T9">
-        <v>0.009802524950457759</v>
+        <v>0.008829727976240829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H10">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J10">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N10">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O10">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P10">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q10">
-        <v>197.5302775691472</v>
+        <v>301.745705847498</v>
       </c>
       <c r="R10">
-        <v>197.5302775691472</v>
+        <v>2715.711352627482</v>
       </c>
       <c r="S10">
-        <v>0.01380976976661656</v>
+        <v>0.0138611917857363</v>
       </c>
       <c r="T10">
-        <v>0.01380976976661656</v>
+        <v>0.01602583768210059</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H11">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J11">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N11">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O11">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P11">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q11">
-        <v>959.8087310561993</v>
+        <v>1139.598751321899</v>
       </c>
       <c r="R11">
-        <v>959.8087310561993</v>
+        <v>6837.592507931394</v>
       </c>
       <c r="S11">
-        <v>0.06710230835996557</v>
+        <v>0.05234936751292769</v>
       </c>
       <c r="T11">
-        <v>0.06710230835996557</v>
+        <v>0.04034970342574792</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H12">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I12">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J12">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N12">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O12">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P12">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q12">
-        <v>206.6064903304048</v>
+        <v>343.7597496170166</v>
       </c>
       <c r="R12">
-        <v>206.6064903304048</v>
+        <v>3093.837746553149</v>
       </c>
       <c r="S12">
-        <v>0.01444430746953615</v>
+        <v>0.0157911768927255</v>
       </c>
       <c r="T12">
-        <v>0.01444430746953615</v>
+        <v>0.01825722070684946</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H13">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I13">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J13">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N13">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O13">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P13">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q13">
-        <v>1289.266934913438</v>
+        <v>1549.155268199842</v>
       </c>
       <c r="R13">
-        <v>1289.266934913438</v>
+        <v>13942.39741379858</v>
       </c>
       <c r="S13">
-        <v>0.09013544535031287</v>
+        <v>0.07116302854448661</v>
       </c>
       <c r="T13">
-        <v>0.09013544535031287</v>
+        <v>0.08227626902862696</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H14">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I14">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J14">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N14">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O14">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P14">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q14">
-        <v>154.6413430171189</v>
+        <v>191.5044022139493</v>
       </c>
       <c r="R14">
-        <v>154.6413430171189</v>
+        <v>1723.539619925544</v>
       </c>
       <c r="S14">
-        <v>0.0108113114088002</v>
+        <v>0.008797073812350807</v>
       </c>
       <c r="T14">
-        <v>0.0108113114088002</v>
+        <v>0.01017087701933871</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H15">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I15">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J15">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N15">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O15">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P15">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q15">
-        <v>217.8582920482201</v>
+        <v>347.5779178641313</v>
       </c>
       <c r="R15">
-        <v>217.8582920482201</v>
+        <v>3128.201260777182</v>
       </c>
       <c r="S15">
-        <v>0.01523094531106024</v>
+        <v>0.01596657081322826</v>
       </c>
       <c r="T15">
-        <v>0.01523094531106024</v>
+        <v>0.01846000518194035</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H16">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I16">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J16">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N16">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O16">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P16">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q16">
-        <v>1058.583491169727</v>
+        <v>1312.692620007716</v>
       </c>
       <c r="R16">
-        <v>1058.583491169727</v>
+        <v>7876.155720046293</v>
       </c>
       <c r="S16">
-        <v>0.07400786589123109</v>
+        <v>0.06030072279087738</v>
       </c>
       <c r="T16">
-        <v>0.07400786589123109</v>
+        <v>0.0464784274684748</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H17">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I17">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J17">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N17">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O17">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P17">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q17">
-        <v>530.3656532881776</v>
+        <v>1202.113196603298</v>
       </c>
       <c r="R17">
-        <v>530.3656532881776</v>
+        <v>10819.01876942969</v>
       </c>
       <c r="S17">
-        <v>0.03707901216038643</v>
+        <v>0.05522107272242065</v>
       </c>
       <c r="T17">
-        <v>0.03707901216038643</v>
+        <v>0.06384472286081838</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H18">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I18">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J18">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N18">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O18">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P18">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q18">
-        <v>3309.590609204519</v>
+        <v>5417.329962467392</v>
       </c>
       <c r="R18">
-        <v>3309.590609204519</v>
+        <v>48755.96966220654</v>
       </c>
       <c r="S18">
-        <v>0.2313806516009746</v>
+        <v>0.2488540785210938</v>
       </c>
       <c r="T18">
-        <v>0.2313806516009746</v>
+        <v>0.2877166069523451</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H19">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I19">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J19">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N19">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O19">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P19">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q19">
-        <v>396.9694116747003</v>
+        <v>669.6827344256907</v>
       </c>
       <c r="R19">
-        <v>396.9694116747003</v>
+        <v>6027.144609831216</v>
       </c>
       <c r="S19">
-        <v>0.02775299183031724</v>
+        <v>0.0307629922732429</v>
       </c>
       <c r="T19">
-        <v>0.02775299183031724</v>
+        <v>0.03556712354950779</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H20">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I20">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J20">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N20">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O20">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P20">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q20">
-        <v>559.2493982237544</v>
+        <v>1215.465168269038</v>
       </c>
       <c r="R20">
-        <v>559.2493982237544</v>
+        <v>10939.18651442135</v>
       </c>
       <c r="S20">
-        <v>0.03909833736190325</v>
+        <v>0.05583441778877955</v>
       </c>
       <c r="T20">
-        <v>0.03909833736190325</v>
+        <v>0.06455385152944408</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H21">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I21">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J21">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N21">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O21">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P21">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q21">
-        <v>2717.418624925401</v>
+        <v>4590.430157553618</v>
       </c>
       <c r="R21">
-        <v>2717.418624925401</v>
+        <v>27542.58094532171</v>
       </c>
       <c r="S21">
-        <v>0.1899806249024225</v>
+        <v>0.2108690581500316</v>
       </c>
       <c r="T21">
-        <v>0.1899806249024225</v>
+        <v>0.1625330803838153</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H22">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I22">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J22">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N22">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O22">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P22">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q22">
-        <v>71.24447377985938</v>
+        <v>123.7046219187495</v>
       </c>
       <c r="R22">
-        <v>71.24447377985938</v>
+        <v>742.2277315124969</v>
       </c>
       <c r="S22">
-        <v>0.004980855553646434</v>
+        <v>0.005682577932242022</v>
       </c>
       <c r="T22">
-        <v>0.004980855553646434</v>
+        <v>0.004380001997216912</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H23">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I23">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J23">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N23">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O23">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P23">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q23">
-        <v>444.580149407643</v>
+        <v>557.4755827568655</v>
       </c>
       <c r="R23">
-        <v>444.580149407643</v>
+        <v>3344.853496541193</v>
       </c>
       <c r="S23">
-        <v>0.03108156168098503</v>
+        <v>0.02560856979473761</v>
       </c>
       <c r="T23">
-        <v>0.03108156168098503</v>
+        <v>0.01973850392977634</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H24">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I24">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J24">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N24">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O24">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P24">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q24">
-        <v>53.32524205917469</v>
+        <v>68.914349914572</v>
       </c>
       <c r="R24">
-        <v>53.32524205917469</v>
+        <v>413.486099487432</v>
       </c>
       <c r="S24">
-        <v>0.003728083231840314</v>
+        <v>0.00316569549274049</v>
       </c>
       <c r="T24">
-        <v>0.003728083231840314</v>
+        <v>0.002440046180820839</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H25">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I25">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J25">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N25">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O25">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P25">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q25">
-        <v>75.12445204762388</v>
+        <v>125.078619485241</v>
       </c>
       <c r="R25">
-        <v>75.12445204762388</v>
+        <v>750.4717169114459</v>
       </c>
       <c r="S25">
-        <v>0.005252113242526796</v>
+        <v>0.005745694799899781</v>
       </c>
       <c r="T25">
-        <v>0.005252113242526796</v>
+        <v>0.00442865104518342</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H26">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I26">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J26">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N26">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O26">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P26">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q26">
-        <v>365.0331780953487</v>
+        <v>472.3826580467954</v>
       </c>
       <c r="R26">
-        <v>365.0331780953487</v>
+        <v>1889.530632187182</v>
       </c>
       <c r="S26">
-        <v>0.02552026053276035</v>
+        <v>0.02169968451100929</v>
       </c>
       <c r="T26">
-        <v>0.02552026053276035</v>
+        <v>0.01115041595915235</v>
       </c>
     </row>
   </sheetData>
